--- a/data/Firmen/creators/2025-02-01/Daily_Motivations.xlsx
+++ b/data/Firmen/creators/2025-02-01/Daily_Motivations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -779,6 +779,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-02-07</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-02-07</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-02-07</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-02-08</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-02-08</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-02-08</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/Firmen/creators/2025-02-01/Daily_Motivations.xlsx
+++ b/data/Firmen/creators/2025-02-01/Daily_Motivations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -863,10 +863,10 @@
         </is>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -884,6 +884,60 @@
         <v>0</v>
       </c>
       <c r="D25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C27" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" t="b">
         <v>0</v>
       </c>
     </row>

--- a/data/Firmen/creators/2025-02-01/Daily_Motivations.xlsx
+++ b/data/Firmen/creators/2025-02-01/Daily_Motivations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,6 +941,60 @@
         <v>0</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/Firmen/creators/2025-02-01/Daily_Motivations.xlsx
+++ b/data/Firmen/creators/2025-02-01/Daily_Motivations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -995,6 +995,60 @@
         <v>0</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-02-11</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-02-11</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-02-11</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/Firmen/creators/2025-02-01/Daily_Motivations.xlsx
+++ b/data/Firmen/creators/2025-02-01/Daily_Motivations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1049,6 +1049,60 @@
         <v>0</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-02-12</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C35" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-02-12</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C36" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-02-12</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/Firmen/creators/2025-02-01/Daily_Motivations.xlsx
+++ b/data/Firmen/creators/2025-02-01/Daily_Motivations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,6 +1103,60 @@
         <v>0</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C38" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C39" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C40" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/Firmen/creators/2025-02-01/Daily_Motivations.xlsx
+++ b/data/Firmen/creators/2025-02-01/Daily_Motivations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1157,6 +1157,222 @@
         <v>0</v>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C41" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C42" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C43" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-02-15</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C44" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-02-15</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-02-15</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C46" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C47" t="b">
+        <v>1</v>
+      </c>
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C48" t="b">
+        <v>1</v>
+      </c>
+      <c r="D48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C49" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C50" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C51" t="b">
+        <v>1</v>
+      </c>
+      <c r="D51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C52" t="b">
+        <v>0</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/Firmen/creators/2025-02-01/Daily_Motivations.xlsx
+++ b/data/Firmen/creators/2025-02-01/Daily_Motivations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1373,6 +1373,60 @@
         <v>0</v>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C53" t="b">
+        <v>1</v>
+      </c>
+      <c r="D53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C54" t="b">
+        <v>1</v>
+      </c>
+      <c r="D54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C55" t="b">
+        <v>0</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/Firmen/creators/2025-02-01/Daily_Motivations.xlsx
+++ b/data/Firmen/creators/2025-02-01/Daily_Motivations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1427,6 +1427,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-02-19</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C56" t="b">
+        <v>0</v>
+      </c>
+      <c r="D56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-02-19</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C57" t="b">
+        <v>1</v>
+      </c>
+      <c r="D57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-02-19</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C58" t="b">
+        <v>0</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-02-20</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C59" t="b">
+        <v>0</v>
+      </c>
+      <c r="D59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-02-20</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C60" t="b">
+        <v>0</v>
+      </c>
+      <c r="D60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-02-20</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C61" t="b">
+        <v>0</v>
+      </c>
+      <c r="D61" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/Firmen/creators/2025-02-01/Daily_Motivations.xlsx
+++ b/data/Firmen/creators/2025-02-01/Daily_Motivations.xlsx
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="D60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">

--- a/data/Firmen/creators/2025-02-01/Daily_Motivations.xlsx
+++ b/data/Firmen/creators/2025-02-01/Daily_Motivations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -776,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -830,7 +830,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1043,7 +1043,7 @@
         </is>
       </c>
       <c r="C34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="C37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1154,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1208,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="C55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
@@ -1475,10 +1475,10 @@
         </is>
       </c>
       <c r="C58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1529,9 +1529,171 @@
         </is>
       </c>
       <c r="C61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C62" t="b">
+        <v>0</v>
+      </c>
+      <c r="D62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C63" t="b">
+        <v>1</v>
+      </c>
+      <c r="D63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C64" t="b">
+        <v>1</v>
+      </c>
+      <c r="D64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-02-22</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C65" t="b">
+        <v>1</v>
+      </c>
+      <c r="D65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-02-22</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C66" t="b">
+        <v>1</v>
+      </c>
+      <c r="D66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-02-22</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C68" t="b">
+        <v>1</v>
+      </c>
+      <c r="D68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C69" t="b">
+        <v>0</v>
+      </c>
+      <c r="D69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C70" t="b">
+        <v>0</v>
+      </c>
+      <c r="D70" t="b">
         <v>0</v>
       </c>
     </row>

--- a/data/Firmen/creators/2025-02-01/Daily_Motivations.xlsx
+++ b/data/Firmen/creators/2025-02-01/Daily_Motivations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1697,6 +1697,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C71" t="b">
+        <v>0</v>
+      </c>
+      <c r="D71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C72" t="b">
+        <v>1</v>
+      </c>
+      <c r="D72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C73" t="b">
+        <v>0</v>
+      </c>
+      <c r="D73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C74" t="b">
+        <v>1</v>
+      </c>
+      <c r="D74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C75" t="b">
+        <v>0</v>
+      </c>
+      <c r="D75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C76" t="b">
+        <v>0</v>
+      </c>
+      <c r="D76" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/Firmen/creators/2025-02-01/Daily_Motivations.xlsx
+++ b/data/Firmen/creators/2025-02-01/Daily_Motivations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1805,6 +1805,60 @@
         <v>0</v>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-02-26</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C77" t="b">
+        <v>1</v>
+      </c>
+      <c r="D77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-02-26</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C78" t="b">
+        <v>0</v>
+      </c>
+      <c r="D78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-02-26</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C79" t="b">
+        <v>0</v>
+      </c>
+      <c r="D79" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/Firmen/creators/2025-02-01/Daily_Motivations.xlsx
+++ b/data/Firmen/creators/2025-02-01/Daily_Motivations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1859,6 +1859,60 @@
         <v>0</v>
       </c>
     </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C80" t="b">
+        <v>0</v>
+      </c>
+      <c r="D80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C81" t="b">
+        <v>1</v>
+      </c>
+      <c r="D81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C82" t="b">
+        <v>0</v>
+      </c>
+      <c r="D82" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/Firmen/creators/2025-02-01/Daily_Motivations.xlsx
+++ b/data/Firmen/creators/2025-02-01/Daily_Motivations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1913,6 +1913,60 @@
         <v>0</v>
       </c>
     </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C83" t="b">
+        <v>1</v>
+      </c>
+      <c r="D83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C84" t="b">
+        <v>1</v>
+      </c>
+      <c r="D84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C85" t="b">
+        <v>1</v>
+      </c>
+      <c r="D85" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
